--- a/diagrams/ofgem_mm_diagram.xlsx
+++ b/diagrams/ofgem_mm_diagram.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A5F32-5C2D-214E-B208-5E435AF0C6FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E2762-EB89-BE49-92C9-FFF95696BC3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-21520" windowWidth="25480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10600" yWindow="-21580" windowWidth="25480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Summary</t>
   </si>
@@ -97,9 +98,6 @@
     <t>Ofgam can have too much reliance on a single number when making consultation decisions</t>
   </si>
   <si>
-    <t>Representation</t>
-  </si>
-  <si>
     <t>Calculation method</t>
   </si>
   <si>
@@ -215,16 +213,92 @@
   </si>
   <si>
     <t>Format of data can be poor such as B2B market shares by SME</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>We want to know that login details can't be shared</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Meeting notes</t>
+  </si>
+  <si>
+    <t>Agency Partners</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>https://ofgemsousd.atlassian.net/wiki/spaces/ODS/pages/242876579/Agency+Partners+research+analysis</t>
+  </si>
+  <si>
+    <t>Baringa</t>
+  </si>
+  <si>
+    <t>Innovators</t>
+  </si>
+  <si>
+    <t>https://ofgemsousd.atlassian.net/wiki/spaces/ODS/pages/242876909/Baringa+research+analysis</t>
+  </si>
+  <si>
+    <t>Network journey</t>
+  </si>
+  <si>
+    <t>https://ofgemsousd.atlassian.net/wiki/spaces/ODS/pages/541098034/Regulation+manager+in+network+company+-+IIS+journey+map</t>
+  </si>
+  <si>
+    <t>Supplier journey</t>
+  </si>
+  <si>
+    <t>https://ofgemsousd.atlassian.net/wiki/spaces/ODS/pages/541261932/Data+analyst+in+energy+supplier+company</t>
+  </si>
+  <si>
+    <t>ElectraLink</t>
+  </si>
+  <si>
+    <t>Data provider</t>
+  </si>
+  <si>
+    <t>https://ofgemsousd.atlassian.net/wiki/spaces/ODS/pages/1133936717/10+01+2019+ElectraLink</t>
+  </si>
+  <si>
+    <t>Restrict logins</t>
+  </si>
+  <si>
+    <t>We want to ensure files are sent securely</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Source data</t>
+  </si>
+  <si>
+    <t>Users may leave or we may need to see what has failed in the original</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,8 +324,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB36CFA-0F2C-9449-968E-5B75719FC719}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,17 +696,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -637,7 +714,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -663,7 +740,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -671,7 +748,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>104</v>
@@ -692,12 +769,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>102</v>
@@ -705,7 +782,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>102</v>
@@ -713,12 +790,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>102</v>
@@ -726,7 +803,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>103</v>
@@ -734,17 +811,17 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>102</v>
@@ -752,12 +829,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>104</v>
@@ -765,7 +842,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>104</v>
@@ -773,10 +850,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
       </c>
       <c r="D25">
         <v>104</v>
@@ -784,17 +861,17 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>103</v>
@@ -802,7 +879,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>104</v>
@@ -810,12 +887,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -823,7 +900,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>104</v>
@@ -831,90 +908,90 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>38</v>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>40</v>
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>39</v>
-      </c>
-      <c r="D37">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
+      <c r="B41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -922,93 +999,230 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>23</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59">
+      <c r="D67">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1786B6A5-C951-734F-82D0-2EF64216C290}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
